--- a/biology/Zoologie/Ixamatus_barina/Ixamatus_barina.xlsx
+++ b/biology/Zoologie/Ixamatus_barina/Ixamatus_barina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ixamatus barina est une espèce d'araignées mygalomorphes de la famille des Microstigmatidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ixamatus barina est une espèce d'araignées mygalomorphes de la famille des Microstigmatidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Queensland en Australie[1]. Elle se rencontre sur le plateau d'Atherton vers Baldy, dans la forêt d'État de Malaan, sur le mont Fisher et sur le mont Bellenden Ker.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Queensland en Australie. Elle se rencontre sur le plateau d'Atherton vers Baldy, dans la forêt d'État de Malaan, sur le mont Fisher et sur le mont Bellenden Ker.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle holotype mesure 5,81 mm de long sur 5,06 mm et l'abdomen 5,94 mm de long sur 3,13 mm et la carapace de la femelle paratype mesure 7,38 mm de long sur 5,63 mm et l'abdomen 9,20 mm de long sur 5,80 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle holotype mesure 5,81 mm de long sur 5,06 mm et l'abdomen 5,94 mm de long sur 3,13 mm et la carapace de la femelle paratype mesure 7,38 mm de long sur 5,63 mm et l'abdomen 9,20 mm de long sur 5,80 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Raven, 1982 : Systematics of the Australian mygalomorph spider genus Ixamatus Simon (Diplurinae: Dipluridae: Chelicerata). Australian Journal of Zoology, vol. 30, no 6, p. 1035-1067.</t>
         </is>
